--- a/Data/DataAlreadyUploadedToEDI/EDIProductionFiles/MakeEMLInflow/Jan2021/20210108_RatingCurve_VT.xlsx
+++ b/Data/DataAlreadyUploadedToEDI/EDIProductionFiles/MakeEMLInflow/Jan2021/20210108_RatingCurve_VT.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahoun\Desktop\Reservoirs\Data\DataAlreadyUploadedToEDI\EDIProductionFiles\MakeEMLInflow\Jan2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{313225AC-B527-4350-9641-82D038D454E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67E8E73-D2EE-4D3F-90EB-49DBF97FC66A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20210108_RatingCurve_VT" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -205,9 +205,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -692,7 +692,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4460,10 +4460,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
